--- a/sumstats.xlsx
+++ b/sumstats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20358"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Classes\Spring20\ECON0401A\WORKSPACE\ivyy\FinalProject\OUTPUT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/middfiles/Classes/Spring20/ECON0401A/WORKSPACE/ivyy/FinalProject/OUTPUT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E8D2EC8E-78F2-45AF-9332-97651B725BC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F8E82F-F3CB-3B4D-BA07-A913FC0A2EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20130" windowHeight="8430"/>
+    <workbookView xWindow="2240" yWindow="1100" windowWidth="20140" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t/>
   </si>
@@ -233,13 +233,46 @@
   </si>
   <si>
     <t>Kid Rank | Parents at Top Percentile</t>
+  </si>
+  <si>
+    <t>0.537</t>
+  </si>
+  <si>
+    <t>0.0453</t>
+  </si>
+  <si>
+    <t>0.377</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>0.464</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Kid Rank, Black | Parents at 50%</t>
+  </si>
+  <si>
+    <t>Kid Rank, White | Parents at 50%</t>
+  </si>
+  <si>
+    <t>Has College</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -736,7 +769,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -754,8 +787,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1111,363 +1151,427 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="3" customWidth="1"/>
-    <col min="2" max="6" width="11" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.19921875" style="3"/>
+    <col min="2" max="2" width="37.3984375" style="3" customWidth="1"/>
+    <col min="3" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="2:9">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="2:9">
+      <c r="B8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="2:9">
+      <c r="B9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="10" spans="2:9">
+      <c r="B10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="2:9">
+      <c r="B11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="5">
+        <v>568</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.4027</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4.5865000000000003E-2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.25485999999999998</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.60833000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="14" spans="2:9" ht="15">
+      <c r="B14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="15" spans="2:9" ht="15">
+      <c r="B15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="16" spans="2:9" ht="15">
+      <c r="B16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="17" spans="2:7" ht="15">
+      <c r="B17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="18" spans="2:7" ht="15">
+      <c r="B18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="19" spans="2:7" ht="15">
+      <c r="B19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="20" spans="2:7" ht="15">
+      <c r="B20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="21" spans="2:7">
+      <c r="B21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3:G10 C13:G20 C12:G12 C21:G21" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>